--- a/data/pca/factorExposure/factorExposure_2011-07-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02462505879813667</v>
+        <v>-0.01877551716737547</v>
       </c>
       <c r="C2">
-        <v>0.004344342270315583</v>
+        <v>-0.001306738441210052</v>
       </c>
       <c r="D2">
-        <v>0.0614548170865059</v>
+        <v>0.00347577801451481</v>
       </c>
       <c r="E2">
-        <v>0.02534353334454445</v>
+        <v>-0.03862025478737696</v>
       </c>
       <c r="F2">
-        <v>0.0208088866630254</v>
+        <v>-0.007835125156748198</v>
       </c>
       <c r="G2">
-        <v>-0.0457142331243645</v>
+        <v>0.01976672239197889</v>
       </c>
       <c r="H2">
-        <v>0.01928864606834343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02424714955372709</v>
+      </c>
+      <c r="I2">
+        <v>0.00681353562978282</v>
+      </c>
+      <c r="J2">
+        <v>-1.855352327253904e-06</v>
+      </c>
+      <c r="K2">
+        <v>0.1029985726895502</v>
+      </c>
+      <c r="L2">
+        <v>-0.04521375173656371</v>
+      </c>
+      <c r="M2">
+        <v>0.07464432370339702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.0676358253662149</v>
+        <v>-0.1006386863713744</v>
       </c>
       <c r="C4">
-        <v>-0.06485411155607722</v>
+        <v>0.07254532822449235</v>
       </c>
       <c r="D4">
-        <v>0.02741089963933623</v>
+        <v>0.02325220527856742</v>
       </c>
       <c r="E4">
-        <v>0.03779543259295127</v>
+        <v>-0.04658443903055053</v>
       </c>
       <c r="F4">
-        <v>-0.0425687749508261</v>
+        <v>-0.09960474875724115</v>
       </c>
       <c r="G4">
-        <v>-0.01381075689896541</v>
+        <v>0.01337629450016249</v>
       </c>
       <c r="H4">
-        <v>-0.01839920052722493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.06770411769769495</v>
+      </c>
+      <c r="I4">
+        <v>0.03260587289467658</v>
+      </c>
+      <c r="J4">
+        <v>0.04798794022930547</v>
+      </c>
+      <c r="K4">
+        <v>-0.02648478106820983</v>
+      </c>
+      <c r="L4">
+        <v>-0.03457314369404457</v>
+      </c>
+      <c r="M4">
+        <v>0.009369504331268716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1271589391294416</v>
+        <v>-0.1302376868037692</v>
       </c>
       <c r="C6">
-        <v>-0.04505837183794539</v>
+        <v>0.04849195372530075</v>
       </c>
       <c r="D6">
-        <v>0.07081349381041717</v>
+        <v>0.0008464196880288801</v>
       </c>
       <c r="E6">
-        <v>0.08409810411216125</v>
+        <v>-0.03308239741175911</v>
       </c>
       <c r="F6">
-        <v>-0.05109817339711128</v>
+        <v>-0.02869950280950863</v>
       </c>
       <c r="G6">
-        <v>0.07242979893293149</v>
+        <v>-0.1697237950924214</v>
       </c>
       <c r="H6">
-        <v>0.1151822837872457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.05051722037583582</v>
+      </c>
+      <c r="I6">
+        <v>-0.1098566883606658</v>
+      </c>
+      <c r="J6">
+        <v>0.4277420961656442</v>
+      </c>
+      <c r="K6">
+        <v>-0.02488026734766749</v>
+      </c>
+      <c r="L6">
+        <v>0.03741801008797128</v>
+      </c>
+      <c r="M6">
+        <v>-0.09662619009521164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06526522111750915</v>
+        <v>-0.07011209256903803</v>
       </c>
       <c r="C7">
-        <v>-0.05143498460620611</v>
+        <v>0.07328659125935488</v>
       </c>
       <c r="D7">
-        <v>0.05545367045925965</v>
+        <v>0.003282750956775519</v>
       </c>
       <c r="E7">
-        <v>0.03223262529708346</v>
+        <v>-0.04632050642528979</v>
       </c>
       <c r="F7">
-        <v>-0.03132929644462875</v>
+        <v>-0.01904779156696099</v>
       </c>
       <c r="G7">
-        <v>0.03677170631807012</v>
+        <v>0.006388913599523578</v>
       </c>
       <c r="H7">
-        <v>0.007803838142130067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.06234425363139511</v>
+      </c>
+      <c r="I7">
+        <v>0.02502337906024006</v>
+      </c>
+      <c r="J7">
+        <v>-0.05030195547778817</v>
+      </c>
+      <c r="K7">
+        <v>-0.06463064203920639</v>
+      </c>
+      <c r="L7">
+        <v>-0.02757223487601485</v>
+      </c>
+      <c r="M7">
+        <v>0.007460019247967624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02174880733463668</v>
+        <v>-0.03468357616988195</v>
       </c>
       <c r="C8">
-        <v>-0.0127506085823901</v>
+        <v>0.008169267415248357</v>
       </c>
       <c r="D8">
-        <v>0.04031925319404072</v>
+        <v>0.01811529262796098</v>
       </c>
       <c r="E8">
-        <v>0.0684685006467374</v>
+        <v>-0.05291324882047486</v>
       </c>
       <c r="F8">
-        <v>0.02640715113621357</v>
+        <v>-0.102004503364716</v>
       </c>
       <c r="G8">
-        <v>0.004731222417966439</v>
+        <v>0.002654993251013219</v>
       </c>
       <c r="H8">
-        <v>0.04264043893837286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.05751792422904939</v>
+      </c>
+      <c r="I8">
+        <v>0.0286831092827315</v>
+      </c>
+      <c r="J8">
+        <v>0.03990689937502348</v>
+      </c>
+      <c r="K8">
+        <v>-0.03179644861338898</v>
+      </c>
+      <c r="L8">
+        <v>-0.07872127968038031</v>
+      </c>
+      <c r="M8">
+        <v>0.000828207301372595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.06873550469117277</v>
+        <v>-0.08420129126946106</v>
       </c>
       <c r="C9">
-        <v>-0.07911751621590335</v>
+        <v>0.06781292919676005</v>
       </c>
       <c r="D9">
-        <v>0.03536769961738562</v>
+        <v>0.0008016407031182303</v>
       </c>
       <c r="E9">
-        <v>0.02398874312475142</v>
+        <v>-0.0307263517818373</v>
       </c>
       <c r="F9">
-        <v>-0.02472775133697848</v>
+        <v>-0.09972402658858186</v>
       </c>
       <c r="G9">
-        <v>-0.01518725695973864</v>
+        <v>0.01278455833238868</v>
       </c>
       <c r="H9">
-        <v>-0.01634892601738586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.07510082665901423</v>
+      </c>
+      <c r="I9">
+        <v>0.001771124397064089</v>
+      </c>
+      <c r="J9">
+        <v>0.02442345905936535</v>
+      </c>
+      <c r="K9">
+        <v>-0.01700969435732241</v>
+      </c>
+      <c r="L9">
+        <v>-0.02287002709019412</v>
+      </c>
+      <c r="M9">
+        <v>-0.004670661473244748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06168579334069427</v>
+        <v>-0.1064870587602918</v>
       </c>
       <c r="C10">
-        <v>0.1368636173244041</v>
+        <v>-0.1709477212295962</v>
       </c>
       <c r="D10">
-        <v>0.05667358001679133</v>
+        <v>0.007580719059760864</v>
       </c>
       <c r="E10">
-        <v>0.02654910942441433</v>
+        <v>-0.04362267179320538</v>
       </c>
       <c r="F10">
-        <v>-0.004402345086649293</v>
+        <v>0.02001437762050363</v>
       </c>
       <c r="G10">
-        <v>0.04108421905305469</v>
+        <v>-0.006394581850457574</v>
       </c>
       <c r="H10">
-        <v>0.05275436948810121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.005448142894203041</v>
+      </c>
+      <c r="I10">
+        <v>-0.04157516223319462</v>
+      </c>
+      <c r="J10">
+        <v>-0.06082649187915082</v>
+      </c>
+      <c r="K10">
+        <v>-0.007537710921918636</v>
+      </c>
+      <c r="L10">
+        <v>0.02456118871409829</v>
+      </c>
+      <c r="M10">
+        <v>-0.04633910913347209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.0645129944688904</v>
+        <v>-0.06797336971699471</v>
       </c>
       <c r="C11">
-        <v>-0.08644252009378045</v>
+        <v>0.0714722019339582</v>
       </c>
       <c r="D11">
-        <v>0.04082967725360744</v>
+        <v>-0.03221493695450647</v>
       </c>
       <c r="E11">
-        <v>0.0003441664345976356</v>
+        <v>-0.02080188061275561</v>
       </c>
       <c r="F11">
-        <v>0.02848192571126152</v>
+        <v>-0.1027750454024542</v>
       </c>
       <c r="G11">
-        <v>-0.02718879868815814</v>
+        <v>0.01693552393374409</v>
       </c>
       <c r="H11">
-        <v>-0.01731938989450133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.05578132515936339</v>
+      </c>
+      <c r="I11">
+        <v>-0.01562951722908282</v>
+      </c>
+      <c r="J11">
+        <v>-0.08165306905621618</v>
+      </c>
+      <c r="K11">
+        <v>0.03836023196193249</v>
+      </c>
+      <c r="L11">
+        <v>0.01169307342469624</v>
+      </c>
+      <c r="M11">
+        <v>-0.04766777655804792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05839249824920225</v>
+        <v>-0.06992371868323292</v>
       </c>
       <c r="C12">
-        <v>-0.05164337348194933</v>
+        <v>0.06231467539086725</v>
       </c>
       <c r="D12">
-        <v>0.02060579353662129</v>
+        <v>-0.03000182835562339</v>
       </c>
       <c r="E12">
-        <v>0.01203371397774443</v>
+        <v>-0.01486975306146262</v>
       </c>
       <c r="F12">
-        <v>-0.01223594020841606</v>
+        <v>-0.1129721389549918</v>
       </c>
       <c r="G12">
-        <v>0.01462945189123957</v>
+        <v>0.007679718891694194</v>
       </c>
       <c r="H12">
-        <v>-0.01751932862539024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.06991233087734182</v>
+      </c>
+      <c r="I12">
+        <v>-0.005252208644908246</v>
+      </c>
+      <c r="J12">
+        <v>-0.07045189146527074</v>
+      </c>
+      <c r="K12">
+        <v>0.04725734243496768</v>
+      </c>
+      <c r="L12">
+        <v>-0.04086189368086084</v>
+      </c>
+      <c r="M12">
+        <v>-0.08457313077959558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05055334085318956</v>
+        <v>-0.04960132539972262</v>
       </c>
       <c r="C13">
-        <v>-0.02416237243293005</v>
+        <v>0.03543915531952594</v>
       </c>
       <c r="D13">
-        <v>-0.0003655194240847799</v>
+        <v>0.02142348559944884</v>
       </c>
       <c r="E13">
-        <v>0.01378277570005798</v>
+        <v>-0.0127918999982211</v>
       </c>
       <c r="F13">
-        <v>0.00602733809950836</v>
+        <v>-0.04313225533590927</v>
       </c>
       <c r="G13">
-        <v>-0.02981891474826459</v>
+        <v>0.03117906053652706</v>
       </c>
       <c r="H13">
-        <v>-0.04823783303622451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.03290987120856689</v>
+      </c>
+      <c r="I13">
+        <v>0.02522511817716003</v>
+      </c>
+      <c r="J13">
+        <v>0.00211527235030039</v>
+      </c>
+      <c r="K13">
+        <v>-0.06757155099469592</v>
+      </c>
+      <c r="L13">
+        <v>-0.05778712451387824</v>
+      </c>
+      <c r="M13">
+        <v>0.004335814639458753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04195309690820958</v>
+        <v>-0.04539992679481521</v>
       </c>
       <c r="C14">
-        <v>-0.02097864599880931</v>
+        <v>0.02745298680617331</v>
       </c>
       <c r="D14">
-        <v>0.01985289522693298</v>
+        <v>-0.008116222626738707</v>
       </c>
       <c r="E14">
-        <v>0.00687599273529803</v>
+        <v>-0.01605886287046416</v>
       </c>
       <c r="F14">
-        <v>-0.05145230512309215</v>
+        <v>-0.04953900880275717</v>
       </c>
       <c r="G14">
-        <v>-0.0009004700318458105</v>
+        <v>0.04842005826559238</v>
       </c>
       <c r="H14">
-        <v>0.04309169564347276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.05381565339070297</v>
+      </c>
+      <c r="I14">
+        <v>0.01263453540173427</v>
+      </c>
+      <c r="J14">
+        <v>0.03725704107791354</v>
+      </c>
+      <c r="K14">
+        <v>-0.05125704521982961</v>
+      </c>
+      <c r="L14">
+        <v>-0.008380639418302612</v>
+      </c>
+      <c r="M14">
+        <v>0.01272431361317736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03508033516302553</v>
+        <v>-0.03246250034311458</v>
       </c>
       <c r="C15">
-        <v>0.004266296833048167</v>
+        <v>0.009634849057593133</v>
       </c>
       <c r="D15">
-        <v>-0.008151618111258941</v>
+        <v>0.05790557832650634</v>
       </c>
       <c r="E15">
-        <v>0.02971630172519599</v>
+        <v>-0.004029143241569359</v>
       </c>
       <c r="F15">
-        <v>-0.02636135265304621</v>
+        <v>-0.001872772908581257</v>
       </c>
       <c r="G15">
-        <v>-0.002521630744351616</v>
+        <v>-0.01789616649746886</v>
       </c>
       <c r="H15">
-        <v>-0.0141315164118765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03199443356249092</v>
+      </c>
+      <c r="I15">
+        <v>0.04669210895850731</v>
+      </c>
+      <c r="J15">
+        <v>0.0504334995326322</v>
+      </c>
+      <c r="K15">
+        <v>-0.05213963537969875</v>
+      </c>
+      <c r="L15">
+        <v>-0.00503295972307111</v>
+      </c>
+      <c r="M15">
+        <v>-0.001476180401469865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04806269762751209</v>
+        <v>-0.06981489229449453</v>
       </c>
       <c r="C16">
-        <v>-0.07877582660156759</v>
+        <v>0.07815148072093978</v>
       </c>
       <c r="D16">
-        <v>0.02720165314173219</v>
+        <v>-0.01990238487115317</v>
       </c>
       <c r="E16">
-        <v>0.02548691296080322</v>
+        <v>-0.02242015002399658</v>
       </c>
       <c r="F16">
-        <v>-0.01912982268518742</v>
+        <v>-0.1033060827044502</v>
       </c>
       <c r="G16">
-        <v>-0.02184006267915004</v>
+        <v>0.02222890071643988</v>
       </c>
       <c r="H16">
-        <v>0.0001090814801198837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.07524900057592382</v>
+      </c>
+      <c r="I16">
+        <v>-0.01435943313169316</v>
+      </c>
+      <c r="J16">
+        <v>-0.07482322723333754</v>
+      </c>
+      <c r="K16">
+        <v>0.02366198959063709</v>
+      </c>
+      <c r="L16">
+        <v>-0.01845847213157143</v>
+      </c>
+      <c r="M16">
+        <v>-0.02984080769882647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03918056342180477</v>
+        <v>-0.0422045603043588</v>
       </c>
       <c r="C20">
-        <v>-0.04223902071777356</v>
+        <v>0.03256519063500609</v>
       </c>
       <c r="D20">
-        <v>0.02111042677796345</v>
+        <v>0.0223451051458556</v>
       </c>
       <c r="E20">
-        <v>0.01506427287740552</v>
+        <v>-0.02106339961017751</v>
       </c>
       <c r="F20">
-        <v>-0.02438043393751722</v>
+        <v>-0.04839209534528247</v>
       </c>
       <c r="G20">
-        <v>-0.02466355377943486</v>
+        <v>0.02843829593864799</v>
       </c>
       <c r="H20">
-        <v>-0.01688449708355708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.06210825063543881</v>
+      </c>
+      <c r="I20">
+        <v>-0.003089984486694453</v>
+      </c>
+      <c r="J20">
+        <v>-0.001820832949719619</v>
+      </c>
+      <c r="K20">
+        <v>-0.02067422713245308</v>
+      </c>
+      <c r="L20">
+        <v>-0.06792935026639019</v>
+      </c>
+      <c r="M20">
+        <v>-0.02741327424644698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.008583688996017249</v>
+        <v>-0.02489380643245536</v>
       </c>
       <c r="C21">
-        <v>-0.01421944164539036</v>
+        <v>0.01395415722993568</v>
       </c>
       <c r="D21">
-        <v>-0.01317649333909964</v>
+        <v>0.01694470013677615</v>
       </c>
       <c r="E21">
-        <v>0.07718099581514128</v>
+        <v>-0.0141373127126998</v>
       </c>
       <c r="F21">
-        <v>0.01820765361425252</v>
+        <v>-0.05487736736863331</v>
       </c>
       <c r="G21">
-        <v>0.07798626431952359</v>
+        <v>-0.09634400033731425</v>
       </c>
       <c r="H21">
-        <v>-0.02415097395185306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.04487280573955834</v>
+      </c>
+      <c r="I21">
+        <v>0.0009818354965085172</v>
+      </c>
+      <c r="J21">
+        <v>0.01378897929671287</v>
+      </c>
+      <c r="K21">
+        <v>-0.1197819348324722</v>
+      </c>
+      <c r="L21">
+        <v>0.03235332849516075</v>
+      </c>
+      <c r="M21">
+        <v>-0.07985762496566308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.02797345165117888</v>
+        <v>-0.04255262645601168</v>
       </c>
       <c r="C22">
-        <v>-0.05200985475184562</v>
+        <v>0.0320230463711328</v>
       </c>
       <c r="D22">
-        <v>-0.1119459224872256</v>
+        <v>0.656336199399464</v>
       </c>
       <c r="E22">
-        <v>0.4681361979188623</v>
+        <v>-0.05497377576586201</v>
       </c>
       <c r="F22">
-        <v>-0.1623717140834852</v>
+        <v>0.08182843916515213</v>
       </c>
       <c r="G22">
-        <v>-0.01272050413751818</v>
+        <v>0.02456194273430982</v>
       </c>
       <c r="H22">
-        <v>-0.2977208225926843</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.04864681359413951</v>
+      </c>
+      <c r="I22">
+        <v>-0.1272503672573037</v>
+      </c>
+      <c r="J22">
+        <v>-0.05443767289122942</v>
+      </c>
+      <c r="K22">
+        <v>-0.03705791957411734</v>
+      </c>
+      <c r="L22">
+        <v>0.0396900315271047</v>
+      </c>
+      <c r="M22">
+        <v>0.03347522824900663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.0288738837946946</v>
+        <v>-0.04327286911434771</v>
       </c>
       <c r="C23">
-        <v>-0.05083464796497966</v>
+        <v>0.03223934877597872</v>
       </c>
       <c r="D23">
-        <v>-0.1113692734787459</v>
+        <v>0.6579547280919813</v>
       </c>
       <c r="E23">
-        <v>0.4695743052336527</v>
+        <v>-0.05610974659440034</v>
       </c>
       <c r="F23">
-        <v>-0.1593247456326344</v>
+        <v>0.07720495697089212</v>
       </c>
       <c r="G23">
-        <v>-0.01212662426772661</v>
+        <v>0.02476876974229653</v>
       </c>
       <c r="H23">
-        <v>-0.2939368622370873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.04972981836929093</v>
+      </c>
+      <c r="I23">
+        <v>-0.127837212061166</v>
+      </c>
+      <c r="J23">
+        <v>-0.04917733596023647</v>
+      </c>
+      <c r="K23">
+        <v>-0.03366985326979954</v>
+      </c>
+      <c r="L23">
+        <v>0.04056961567949433</v>
+      </c>
+      <c r="M23">
+        <v>0.03423127203072199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06863888362695586</v>
+        <v>-0.07559542181591536</v>
       </c>
       <c r="C24">
-        <v>-0.07986282560511861</v>
+        <v>0.07624665802940012</v>
       </c>
       <c r="D24">
-        <v>0.04494788539241033</v>
+        <v>-0.017328237093108</v>
       </c>
       <c r="E24">
-        <v>0.03472934196525235</v>
+        <v>-0.02654664454571127</v>
       </c>
       <c r="F24">
-        <v>0.01416978320824974</v>
+        <v>-0.1092404955587184</v>
       </c>
       <c r="G24">
-        <v>-0.01601912440471433</v>
+        <v>0.008901891150350581</v>
       </c>
       <c r="H24">
-        <v>-0.003656140761209995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.06195591050492357</v>
+      </c>
+      <c r="I24">
+        <v>-0.02517271286570883</v>
+      </c>
+      <c r="J24">
+        <v>-0.05680549300383277</v>
+      </c>
+      <c r="K24">
+        <v>0.03650020756040635</v>
+      </c>
+      <c r="L24">
+        <v>-0.004762956694256988</v>
+      </c>
+      <c r="M24">
+        <v>-0.05905109224841221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06033890646491388</v>
+        <v>-0.07228498016569262</v>
       </c>
       <c r="C25">
-        <v>-0.04036155186964144</v>
+        <v>0.04887176521686766</v>
       </c>
       <c r="D25">
-        <v>0.04403460158298191</v>
+        <v>-0.03070943321794734</v>
       </c>
       <c r="E25">
-        <v>0.03897593087451319</v>
+        <v>-0.02784970793591179</v>
       </c>
       <c r="F25">
-        <v>0.0001743117011761436</v>
+        <v>-0.111075854508616</v>
       </c>
       <c r="G25">
-        <v>-0.03356857021263666</v>
+        <v>0.03086292437776401</v>
       </c>
       <c r="H25">
-        <v>0.02072165046728772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.07508224761224586</v>
+      </c>
+      <c r="I25">
+        <v>-0.03505018615058245</v>
+      </c>
+      <c r="J25">
+        <v>-0.05767546625511224</v>
+      </c>
+      <c r="K25">
+        <v>0.0646114534551669</v>
+      </c>
+      <c r="L25">
+        <v>-0.007198245977222807</v>
+      </c>
+      <c r="M25">
+        <v>-0.04413802565615969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03507278605898748</v>
+        <v>-0.03797500045235251</v>
       </c>
       <c r="C26">
-        <v>-0.02316835580769969</v>
+        <v>0.02296052801589273</v>
       </c>
       <c r="D26">
-        <v>0.03581855881877579</v>
+        <v>0.01509964160928281</v>
       </c>
       <c r="E26">
-        <v>0.002664966605554125</v>
+        <v>-0.004092817356746182</v>
       </c>
       <c r="F26">
-        <v>-0.04219017470685719</v>
+        <v>-0.0404275872663058</v>
       </c>
       <c r="G26">
-        <v>0.01421884732893621</v>
+        <v>0.01268305655647722</v>
       </c>
       <c r="H26">
-        <v>-0.01960020643802516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.0395911331255758</v>
+      </c>
+      <c r="I26">
+        <v>0.04488906259299396</v>
+      </c>
+      <c r="J26">
+        <v>0.01737659045441906</v>
+      </c>
+      <c r="K26">
+        <v>-0.1440265237245507</v>
+      </c>
+      <c r="L26">
+        <v>-0.002995552072262733</v>
+      </c>
+      <c r="M26">
+        <v>0.004606910250796968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1154555968520161</v>
+        <v>-0.1378940668630813</v>
       </c>
       <c r="C28">
-        <v>0.2950850622268417</v>
+        <v>-0.2884917201396335</v>
       </c>
       <c r="D28">
-        <v>0.04670219456830841</v>
+        <v>-0.002836557941592419</v>
       </c>
       <c r="E28">
-        <v>0.003488367020612428</v>
+        <v>-0.02678682666498075</v>
       </c>
       <c r="F28">
-        <v>-0.02547871889238802</v>
+        <v>-0.0008723547541089782</v>
       </c>
       <c r="G28">
-        <v>0.0710097204913414</v>
+        <v>-0.02431284314877013</v>
       </c>
       <c r="H28">
-        <v>0.01564145347438847</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.003371389788928901</v>
+      </c>
+      <c r="I28">
+        <v>0.02150484406167474</v>
+      </c>
+      <c r="J28">
+        <v>0.0002156305783420538</v>
+      </c>
+      <c r="K28">
+        <v>-0.03578295192987199</v>
+      </c>
+      <c r="L28">
+        <v>-0.009529549889766538</v>
+      </c>
+      <c r="M28">
+        <v>0.02271200192023994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04625957666017765</v>
+        <v>-0.04474465032190075</v>
       </c>
       <c r="C29">
-        <v>-0.007242371484678518</v>
+        <v>0.02204130829799433</v>
       </c>
       <c r="D29">
-        <v>0.009742936147866555</v>
+        <v>0.0001085033642903332</v>
       </c>
       <c r="E29">
-        <v>0.0341605688537689</v>
+        <v>-0.01774623787171646</v>
       </c>
       <c r="F29">
-        <v>-0.03564335868591979</v>
+        <v>-0.04877193610865606</v>
       </c>
       <c r="G29">
-        <v>-0.01722144309843876</v>
+        <v>0.05844000354314263</v>
       </c>
       <c r="H29">
-        <v>0.01431908308276915</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.04239981103665619</v>
+      </c>
+      <c r="I29">
+        <v>-0.004814420434206029</v>
+      </c>
+      <c r="J29">
+        <v>0.02607764038126758</v>
+      </c>
+      <c r="K29">
+        <v>-0.03902564543978198</v>
+      </c>
+      <c r="L29">
+        <v>-0.01417445842417423</v>
+      </c>
+      <c r="M29">
+        <v>0.01074851740897293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1186374348565763</v>
+        <v>-0.09942073885881773</v>
       </c>
       <c r="C30">
-        <v>-0.07482334262830084</v>
+        <v>0.06680099534237217</v>
       </c>
       <c r="D30">
-        <v>0.07362696720502361</v>
+        <v>-0.0009161481338864871</v>
       </c>
       <c r="E30">
-        <v>0.05065056653344603</v>
+        <v>-0.04410698316313608</v>
       </c>
       <c r="F30">
-        <v>-0.04280336539398836</v>
+        <v>-0.1608377287180173</v>
       </c>
       <c r="G30">
-        <v>0.01902856214135238</v>
+        <v>0.006148697531314855</v>
       </c>
       <c r="H30">
-        <v>0.005121168922903634</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.125157712767038</v>
+      </c>
+      <c r="I30">
+        <v>-0.1910893798877393</v>
+      </c>
+      <c r="J30">
+        <v>-0.03904661179280126</v>
+      </c>
+      <c r="K30">
+        <v>-0.2676890586178628</v>
+      </c>
+      <c r="L30">
+        <v>-0.2388420074921988</v>
+      </c>
+      <c r="M30">
+        <v>0.1336831216075613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04743332338649186</v>
+        <v>-0.03518661019747536</v>
       </c>
       <c r="C31">
-        <v>-0.02066462036856634</v>
+        <v>0.04270501966581195</v>
       </c>
       <c r="D31">
-        <v>0.005593516951684067</v>
+        <v>0.005866209507993637</v>
       </c>
       <c r="E31">
-        <v>-0.004313332760837635</v>
+        <v>0.004579934184788049</v>
       </c>
       <c r="F31">
-        <v>-0.03217405246441396</v>
+        <v>-0.01580764899250484</v>
       </c>
       <c r="G31">
-        <v>-0.01826243281149214</v>
+        <v>0.04985047962482313</v>
       </c>
       <c r="H31">
-        <v>-0.03624222546235283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03292143243503324</v>
+      </c>
+      <c r="I31">
+        <v>0.02780690791572248</v>
+      </c>
+      <c r="J31">
+        <v>0.009755492030164976</v>
+      </c>
+      <c r="K31">
+        <v>0.009418560537101604</v>
+      </c>
+      <c r="L31">
+        <v>-0.03541281399666089</v>
+      </c>
+      <c r="M31">
+        <v>-0.01303349464375825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02355961041987402</v>
+        <v>-0.04902378363362962</v>
       </c>
       <c r="C32">
-        <v>0.009110135784004934</v>
+        <v>-0.003988369635886154</v>
       </c>
       <c r="D32">
-        <v>-0.04201817458953086</v>
+        <v>0.00320594933267124</v>
       </c>
       <c r="E32">
-        <v>0.08417163723720877</v>
+        <v>0.004086832203706404</v>
       </c>
       <c r="F32">
-        <v>0.01119737925774947</v>
+        <v>-0.09021914509883332</v>
       </c>
       <c r="G32">
-        <v>-0.01611006928173808</v>
+        <v>0.00351438164019155</v>
       </c>
       <c r="H32">
-        <v>-0.04720899197487474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.008322723256279677</v>
+      </c>
+      <c r="I32">
+        <v>0.08074905558251581</v>
+      </c>
+      <c r="J32">
+        <v>-0.02694115616272728</v>
+      </c>
+      <c r="K32">
+        <v>-0.04468331230870503</v>
+      </c>
+      <c r="L32">
+        <v>-0.07098191680127822</v>
+      </c>
+      <c r="M32">
+        <v>0.1069311802581936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.09827192770125173</v>
+        <v>-0.09523788125405448</v>
       </c>
       <c r="C33">
-        <v>-0.05835814638883885</v>
+        <v>0.06644321973161256</v>
       </c>
       <c r="D33">
-        <v>0.008364130380187062</v>
+        <v>-0.007681847968468626</v>
       </c>
       <c r="E33">
-        <v>0.005161581246858472</v>
+        <v>0.01919170500875945</v>
       </c>
       <c r="F33">
-        <v>-0.02661600775570288</v>
+        <v>-0.06734056918154208</v>
       </c>
       <c r="G33">
-        <v>-0.03055307424955715</v>
+        <v>0.05464410621768166</v>
       </c>
       <c r="H33">
-        <v>-0.03144783250544519</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.03959108480998872</v>
+      </c>
+      <c r="I33">
+        <v>-0.0197856538353976</v>
+      </c>
+      <c r="J33">
+        <v>0.01734575227433461</v>
+      </c>
+      <c r="K33">
+        <v>-0.04279241603342147</v>
+      </c>
+      <c r="L33">
+        <v>-0.0004658206406837997</v>
+      </c>
+      <c r="M33">
+        <v>-0.0390427766293452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05086387309712477</v>
+        <v>-0.06348277615790669</v>
       </c>
       <c r="C34">
-        <v>-0.0740411982428098</v>
+        <v>0.06360304650844326</v>
       </c>
       <c r="D34">
-        <v>0.02730563143127971</v>
+        <v>-0.02798068740541413</v>
       </c>
       <c r="E34">
-        <v>0.04189051142785499</v>
+        <v>-0.01574908445949739</v>
       </c>
       <c r="F34">
-        <v>-0.006514384770982303</v>
+        <v>-0.09639454646795308</v>
       </c>
       <c r="G34">
-        <v>-0.01735445844196973</v>
+        <v>0.02540481940416705</v>
       </c>
       <c r="H34">
-        <v>0.001087128141351308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.06445548401262594</v>
+      </c>
+      <c r="I34">
+        <v>-0.01285980249163763</v>
+      </c>
+      <c r="J34">
+        <v>-0.04575071158232774</v>
+      </c>
+      <c r="K34">
+        <v>0.04498525217136821</v>
+      </c>
+      <c r="L34">
+        <v>-0.009222492002444065</v>
+      </c>
+      <c r="M34">
+        <v>-0.05684853536850063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03735435192401998</v>
+        <v>-0.02902556627752517</v>
       </c>
       <c r="C35">
-        <v>-0.01900432138388214</v>
+        <v>0.02397035166085239</v>
       </c>
       <c r="D35">
-        <v>0.005001119754535098</v>
+        <v>0.0005227683014691008</v>
       </c>
       <c r="E35">
-        <v>0.0283229480188571</v>
+        <v>0.003703207090911513</v>
       </c>
       <c r="F35">
-        <v>-0.03312919310466397</v>
+        <v>-0.01895330499734873</v>
       </c>
       <c r="G35">
-        <v>-0.02521861313191627</v>
+        <v>0.03397749453417297</v>
       </c>
       <c r="H35">
-        <v>-0.04280070144713965</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.0530121386803142</v>
+      </c>
+      <c r="I35">
+        <v>-0.02385193557983751</v>
+      </c>
+      <c r="J35">
+        <v>-0.03764380675581668</v>
+      </c>
+      <c r="K35">
+        <v>-0.03807070582529581</v>
+      </c>
+      <c r="L35">
+        <v>-0.044031400852477</v>
+      </c>
+      <c r="M35">
+        <v>0.008311551594548376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02503303767553319</v>
+        <v>-0.02939133225359298</v>
       </c>
       <c r="C36">
-        <v>-0.01408713569831705</v>
+        <v>0.01786859691565454</v>
       </c>
       <c r="D36">
-        <v>0.02552976806892539</v>
+        <v>0.01286300107206162</v>
       </c>
       <c r="E36">
-        <v>0.02465627677779929</v>
+        <v>-0.01859799298158706</v>
       </c>
       <c r="F36">
-        <v>-0.02146381874823121</v>
+        <v>-0.0539953977799619</v>
       </c>
       <c r="G36">
-        <v>-0.01579935839824853</v>
+        <v>0.02410696670628807</v>
       </c>
       <c r="H36">
-        <v>-0.01057433387585254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.05161487368890365</v>
+      </c>
+      <c r="I36">
+        <v>-0.003740592842663996</v>
+      </c>
+      <c r="J36">
+        <v>0.01161341048105241</v>
+      </c>
+      <c r="K36">
+        <v>-0.05058011881539323</v>
+      </c>
+      <c r="L36">
+        <v>-0.009804128497773857</v>
+      </c>
+      <c r="M36">
+        <v>-0.03724405086941984</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.03989930104466469</v>
+        <v>-0.03294170765187556</v>
       </c>
       <c r="C38">
-        <v>-0.02622397619891535</v>
+        <v>0.04706459570121944</v>
       </c>
       <c r="D38">
-        <v>-0.03366945614705512</v>
+        <v>0.02535630200707275</v>
       </c>
       <c r="E38">
-        <v>0.04990336381094991</v>
+        <v>0.000155469273515882</v>
       </c>
       <c r="F38">
-        <v>-0.0007974210904615151</v>
+        <v>0.04251381373297299</v>
       </c>
       <c r="G38">
-        <v>0.005588172470836192</v>
+        <v>0.03413581843592856</v>
       </c>
       <c r="H38">
-        <v>-0.04360324744333981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.07956632910528624</v>
+      </c>
+      <c r="I38">
+        <v>-0.01665856987296691</v>
+      </c>
+      <c r="J38">
+        <v>-0.0241744667903181</v>
+      </c>
+      <c r="K38">
+        <v>-0.1662604212040568</v>
+      </c>
+      <c r="L38">
+        <v>0.09321351849601919</v>
+      </c>
+      <c r="M38">
+        <v>0.04468846494883773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09259655179666758</v>
+        <v>-0.09473209893998356</v>
       </c>
       <c r="C39">
-        <v>-0.09708891511472585</v>
+        <v>0.08544731311538771</v>
       </c>
       <c r="D39">
-        <v>0.01834257555542936</v>
+        <v>-0.07614016024517507</v>
       </c>
       <c r="E39">
-        <v>0.04059200567352866</v>
+        <v>-0.006465842827314693</v>
       </c>
       <c r="F39">
-        <v>0.02842676133771817</v>
+        <v>-0.1453097317338246</v>
       </c>
       <c r="G39">
-        <v>-0.00764312842949569</v>
+        <v>0.0425380659534423</v>
       </c>
       <c r="H39">
-        <v>0.007720921695955308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.08406984909620559</v>
+      </c>
+      <c r="I39">
+        <v>-0.07197749339000487</v>
+      </c>
+      <c r="J39">
+        <v>-0.1812080330352614</v>
+      </c>
+      <c r="K39">
+        <v>-0.01200865754713711</v>
+      </c>
+      <c r="L39">
+        <v>-0.07663686453942288</v>
+      </c>
+      <c r="M39">
+        <v>0.02817889339239066</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.06075344644793258</v>
+        <v>-0.03932546814147724</v>
       </c>
       <c r="C40">
-        <v>-0.0239146229897501</v>
+        <v>0.05522000657351711</v>
       </c>
       <c r="D40">
-        <v>-0.01983700347856595</v>
+        <v>0.04924258978980499</v>
       </c>
       <c r="E40">
-        <v>0.1671774088062902</v>
+        <v>0.008484902966513551</v>
       </c>
       <c r="F40">
-        <v>-0.03736151408979958</v>
+        <v>-0.1318743323000862</v>
       </c>
       <c r="G40">
-        <v>-0.03843450475008547</v>
+        <v>-0.03435180783533483</v>
       </c>
       <c r="H40">
-        <v>-0.01187018940155917</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.003529259504618988</v>
+      </c>
+      <c r="I40">
+        <v>-0.008338100985546427</v>
+      </c>
+      <c r="J40">
+        <v>-0.0772897122888752</v>
+      </c>
+      <c r="K40">
+        <v>-0.1237760994156627</v>
+      </c>
+      <c r="L40">
+        <v>-0.04952657567724519</v>
+      </c>
+      <c r="M40">
+        <v>0.03575970497712976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04272863723121858</v>
+        <v>-0.03569614405921297</v>
       </c>
       <c r="C41">
-        <v>-0.04804624812875548</v>
+        <v>0.03666131004421055</v>
       </c>
       <c r="D41">
-        <v>0.006098282040156221</v>
+        <v>-0.01876922206515803</v>
       </c>
       <c r="E41">
-        <v>0.008154960690795774</v>
+        <v>0.001154398675014936</v>
       </c>
       <c r="F41">
-        <v>-0.016323577591538</v>
+        <v>-0.01627494420844735</v>
       </c>
       <c r="G41">
-        <v>-0.0131649487956893</v>
+        <v>0.02405396669153253</v>
       </c>
       <c r="H41">
-        <v>-0.01527527343278509</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.004306301170455594</v>
+      </c>
+      <c r="I41">
+        <v>0.0171793158707154</v>
+      </c>
+      <c r="J41">
+        <v>-0.01380863328055757</v>
+      </c>
+      <c r="K41">
+        <v>-0.03145097364178357</v>
+      </c>
+      <c r="L41">
+        <v>-0.01920720991044966</v>
+      </c>
+      <c r="M41">
+        <v>-0.01286342822183118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05278224270738582</v>
+        <v>-0.05183795751161901</v>
       </c>
       <c r="C43">
-        <v>-0.03967102853487659</v>
+        <v>0.04835350103401829</v>
       </c>
       <c r="D43">
-        <v>0.02593002908255105</v>
+        <v>0.01176524545230916</v>
       </c>
       <c r="E43">
-        <v>0.02583210100193832</v>
+        <v>-0.02026595908301526</v>
       </c>
       <c r="F43">
-        <v>-0.007484835447939195</v>
+        <v>-0.013315143609086</v>
       </c>
       <c r="G43">
-        <v>0.008660365228783001</v>
+        <v>0.04803338546107139</v>
       </c>
       <c r="H43">
-        <v>-0.05770682118211169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.005491421535487704</v>
+      </c>
+      <c r="I43">
+        <v>0.003183717486997175</v>
+      </c>
+      <c r="J43">
+        <v>-0.01829364452389767</v>
+      </c>
+      <c r="K43">
+        <v>-0.01251497760720038</v>
+      </c>
+      <c r="L43">
+        <v>-0.003148032817257504</v>
+      </c>
+      <c r="M43">
+        <v>-0.0314340821026465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.0488963969145437</v>
+        <v>-0.08357282866289523</v>
       </c>
       <c r="C44">
-        <v>-0.02693663085497574</v>
+        <v>0.05909705489370908</v>
       </c>
       <c r="D44">
-        <v>0.06071939146928647</v>
+        <v>0.06676316664501096</v>
       </c>
       <c r="E44">
-        <v>0.137429845609324</v>
+        <v>-0.09912750341787969</v>
       </c>
       <c r="F44">
-        <v>0.002370838581788432</v>
+        <v>-0.1691520167641871</v>
       </c>
       <c r="G44">
-        <v>-0.01629228385906172</v>
+        <v>0.0345829047183649</v>
       </c>
       <c r="H44">
-        <v>0.01848642228462063</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.08421630189211406</v>
+      </c>
+      <c r="I44">
+        <v>-0.01698523215548311</v>
+      </c>
+      <c r="J44">
+        <v>-0.0525365571156113</v>
+      </c>
+      <c r="K44">
+        <v>-0.06277774558331192</v>
+      </c>
+      <c r="L44">
+        <v>-0.03607120279775686</v>
+      </c>
+      <c r="M44">
+        <v>0.035273600747495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01988486400412005</v>
+        <v>-0.0391265702240338</v>
       </c>
       <c r="C46">
-        <v>-0.03552866993325371</v>
+        <v>0.04028060430782745</v>
       </c>
       <c r="D46">
-        <v>0.01261276717912691</v>
+        <v>0.04131408439727024</v>
       </c>
       <c r="E46">
-        <v>0.05418146357309294</v>
+        <v>-0.02923551121581268</v>
       </c>
       <c r="F46">
-        <v>-0.01531549988022539</v>
+        <v>-0.02332159243875802</v>
       </c>
       <c r="G46">
-        <v>-0.01087313705476934</v>
+        <v>0.02340960468989762</v>
       </c>
       <c r="H46">
-        <v>0.005145429487272386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.05009321738989441</v>
+      </c>
+      <c r="I46">
+        <v>0.01707053898589821</v>
+      </c>
+      <c r="J46">
+        <v>0.03706753705087104</v>
+      </c>
+      <c r="K46">
+        <v>-0.07195453224196889</v>
+      </c>
+      <c r="L46">
+        <v>0.01151936676073003</v>
+      </c>
+      <c r="M46">
+        <v>-0.007116417291880161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02948777424507384</v>
+        <v>-0.04383016819297145</v>
       </c>
       <c r="C47">
-        <v>0.005227506210575728</v>
+        <v>0.02667444581224616</v>
       </c>
       <c r="D47">
-        <v>-0.005168352012972742</v>
+        <v>0.02164350888958159</v>
       </c>
       <c r="E47">
-        <v>0.06731826967073395</v>
+        <v>-0.003094361344022526</v>
       </c>
       <c r="F47">
-        <v>-0.0234809559691182</v>
+        <v>-0.03231892900269909</v>
       </c>
       <c r="G47">
-        <v>-0.03240261930760665</v>
+        <v>0.04117369771183495</v>
       </c>
       <c r="H47">
-        <v>-0.007291552825811233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01432759051066285</v>
+      </c>
+      <c r="I47">
+        <v>-0.02507013290402088</v>
+      </c>
+      <c r="J47">
+        <v>0.01984097322641464</v>
+      </c>
+      <c r="K47">
+        <v>-0.01217256877589954</v>
+      </c>
+      <c r="L47">
+        <v>-0.00733262087467886</v>
+      </c>
+      <c r="M47">
+        <v>-0.05731566168172322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.034180435842818</v>
+        <v>-0.04282556036206564</v>
       </c>
       <c r="C48">
-        <v>-0.02189375915086742</v>
+        <v>0.01908542308497252</v>
       </c>
       <c r="D48">
-        <v>0.004832617856103666</v>
+        <v>0.0131938967333573</v>
       </c>
       <c r="E48">
-        <v>0.04419520903737944</v>
+        <v>-2.943635642545338e-05</v>
       </c>
       <c r="F48">
-        <v>-0.03444540746411247</v>
+        <v>-0.05971945002183845</v>
       </c>
       <c r="G48">
-        <v>-0.01216729247683146</v>
+        <v>-0.0007388157202974834</v>
       </c>
       <c r="H48">
-        <v>-0.04531807067461942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.06724975810672813</v>
+      </c>
+      <c r="I48">
+        <v>0.01280518019540894</v>
+      </c>
+      <c r="J48">
+        <v>-0.01388793419452456</v>
+      </c>
+      <c r="K48">
+        <v>-0.02565556348230269</v>
+      </c>
+      <c r="L48">
+        <v>-0.05510689894296928</v>
+      </c>
+      <c r="M48">
+        <v>-0.02821566840229922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1871300341662955</v>
+        <v>-0.2225513314278565</v>
       </c>
       <c r="C49">
-        <v>-0.1228293377032307</v>
+        <v>0.08389232179577165</v>
       </c>
       <c r="D49">
-        <v>0.07104134147443303</v>
+        <v>-0.06609665665582216</v>
       </c>
       <c r="E49">
-        <v>-0.06243553745716485</v>
+        <v>-0.02271425755094544</v>
       </c>
       <c r="F49">
-        <v>-0.02707952810208172</v>
+        <v>0.221401193406934</v>
       </c>
       <c r="G49">
-        <v>0.173065176782933</v>
+        <v>-0.19338337792015</v>
       </c>
       <c r="H49">
-        <v>0.09449825204264049</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.03836582520735063</v>
+      </c>
+      <c r="I49">
+        <v>-0.0856834006616964</v>
+      </c>
+      <c r="J49">
+        <v>-0.1614525885833938</v>
+      </c>
+      <c r="K49">
+        <v>0.056601708145601</v>
+      </c>
+      <c r="L49">
+        <v>0.2115427490321415</v>
+      </c>
+      <c r="M49">
+        <v>-0.03240149741059419</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05381945360360607</v>
+        <v>-0.04319286176521633</v>
       </c>
       <c r="C50">
-        <v>-0.03086700160492187</v>
+        <v>0.04312461572413576</v>
       </c>
       <c r="D50">
-        <v>0.008262704638348571</v>
+        <v>0.001962279005115344</v>
       </c>
       <c r="E50">
-        <v>0.01930660824170745</v>
+        <v>0.01077136301692404</v>
       </c>
       <c r="F50">
-        <v>-0.0494115221186</v>
+        <v>-0.04062719396469957</v>
       </c>
       <c r="G50">
-        <v>-0.04838733877223741</v>
+        <v>0.05509762132680582</v>
       </c>
       <c r="H50">
-        <v>-0.01062788952758384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02907377962774821</v>
+      </c>
+      <c r="I50">
+        <v>-0.003331497450477392</v>
+      </c>
+      <c r="J50">
+        <v>0.04567654588562226</v>
+      </c>
+      <c r="K50">
+        <v>-0.02322261788807664</v>
+      </c>
+      <c r="L50">
+        <v>-0.0244653199485938</v>
+      </c>
+      <c r="M50">
+        <v>0.03923617907423194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02404801297584331</v>
+        <v>-0.03092926909461203</v>
       </c>
       <c r="C51">
-        <v>-0.008036113773970212</v>
+        <v>0.004624481879021536</v>
       </c>
       <c r="D51">
-        <v>-0.004221243874238575</v>
+        <v>-0.002110858922794332</v>
       </c>
       <c r="E51">
-        <v>0.01800478956353031</v>
+        <v>-0.01995084273364194</v>
       </c>
       <c r="F51">
-        <v>0.015701231946139</v>
+        <v>0.01670743821285969</v>
       </c>
       <c r="G51">
-        <v>0.01574809854839194</v>
+        <v>-0.01104219088498025</v>
       </c>
       <c r="H51">
-        <v>0.02545804928495901</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.0132090601486863</v>
+      </c>
+      <c r="I51">
+        <v>-0.02628306042718455</v>
+      </c>
+      <c r="J51">
+        <v>-0.05852439176178016</v>
+      </c>
+      <c r="K51">
+        <v>0.07701928186966331</v>
+      </c>
+      <c r="L51">
+        <v>0.01478972896447017</v>
+      </c>
+      <c r="M51">
+        <v>-0.01655272191991548</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.003948009045277167</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.001759444720673095</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01221379798710437</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.001005730266872767</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.009473523182983201</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.00546226600436712</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.005724156800393722</v>
+      </c>
+      <c r="I52">
+        <v>0.02770697890149797</v>
+      </c>
+      <c r="J52">
+        <v>-0.0001275630908360341</v>
+      </c>
+      <c r="K52">
+        <v>0.02614432715307767</v>
+      </c>
+      <c r="L52">
+        <v>-0.00415937998554386</v>
+      </c>
+      <c r="M52">
+        <v>0.004272021069252997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1667419919620166</v>
+        <v>-0.1533745058306555</v>
       </c>
       <c r="C53">
-        <v>-0.02052952475804153</v>
+        <v>0.04892176772909479</v>
       </c>
       <c r="D53">
-        <v>0.04001280082832302</v>
+        <v>-0.01883362784779777</v>
       </c>
       <c r="E53">
-        <v>-0.07684001796980768</v>
+        <v>0.005856512205687584</v>
       </c>
       <c r="F53">
-        <v>0.04914817531138441</v>
+        <v>0.07249936313714513</v>
       </c>
       <c r="G53">
-        <v>-0.2602428239154834</v>
+        <v>0.2304947022789788</v>
       </c>
       <c r="H53">
-        <v>-0.06002131687946248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.07651075043500988</v>
+      </c>
+      <c r="I53">
+        <v>0.02334659183652735</v>
+      </c>
+      <c r="J53">
+        <v>0.09172294530265933</v>
+      </c>
+      <c r="K53">
+        <v>0.04524571008862359</v>
+      </c>
+      <c r="L53">
+        <v>0.03737854451249534</v>
+      </c>
+      <c r="M53">
+        <v>0.09933532322147619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05048585457130288</v>
+        <v>-0.05849959986396834</v>
       </c>
       <c r="C54">
-        <v>-0.0344238433493298</v>
+        <v>0.03018036651897771</v>
       </c>
       <c r="D54">
-        <v>0.03614652532513402</v>
+        <v>0.01745954040042605</v>
       </c>
       <c r="E54">
-        <v>0.02783934356153133</v>
+        <v>-0.02270023650574383</v>
       </c>
       <c r="F54">
-        <v>-0.0194782377801733</v>
+        <v>-0.09948253275430377</v>
       </c>
       <c r="G54">
-        <v>-0.001944791203324837</v>
+        <v>0.01657043646649574</v>
       </c>
       <c r="H54">
-        <v>-0.02747982792039148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.06639938232824735</v>
+      </c>
+      <c r="I54">
+        <v>0.0592315620966421</v>
+      </c>
+      <c r="J54">
+        <v>0.06824710702194346</v>
+      </c>
+      <c r="K54">
+        <v>-0.0520743700711394</v>
+      </c>
+      <c r="L54">
+        <v>-0.03801402826711563</v>
+      </c>
+      <c r="M54">
+        <v>-0.03262084464899805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09254746102788411</v>
+        <v>-0.08773845062288342</v>
       </c>
       <c r="C55">
-        <v>-0.005936388639363787</v>
+        <v>0.03860337580961789</v>
       </c>
       <c r="D55">
-        <v>0.03211409113013152</v>
+        <v>-0.02718960517600667</v>
       </c>
       <c r="E55">
-        <v>-0.01326670158759811</v>
+        <v>-0.009336329769039855</v>
       </c>
       <c r="F55">
-        <v>0.01158625013216091</v>
+        <v>-0.0004851659899011899</v>
       </c>
       <c r="G55">
-        <v>-0.237215770436341</v>
+        <v>0.1687954689296534</v>
       </c>
       <c r="H55">
-        <v>-0.03926594783337024</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.02624112416301109</v>
+      </c>
+      <c r="I55">
+        <v>0.009625343521683191</v>
+      </c>
+      <c r="J55">
+        <v>0.05673278405907291</v>
+      </c>
+      <c r="K55">
+        <v>0.03541424546240695</v>
+      </c>
+      <c r="L55">
+        <v>0.02254382996261976</v>
+      </c>
+      <c r="M55">
+        <v>0.06473295643468996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1711745253759637</v>
+        <v>-0.1471092662939947</v>
       </c>
       <c r="C56">
-        <v>-0.01857695616967077</v>
+        <v>0.06855009844424961</v>
       </c>
       <c r="D56">
-        <v>0.06973457093695307</v>
+        <v>-0.03177464700482596</v>
       </c>
       <c r="E56">
-        <v>-0.07988370184158547</v>
+        <v>-0.009771435679599285</v>
       </c>
       <c r="F56">
-        <v>0.05903890082306486</v>
+        <v>0.04430594864365572</v>
       </c>
       <c r="G56">
-        <v>-0.2178124325233703</v>
+        <v>0.2335350035284763</v>
       </c>
       <c r="H56">
-        <v>-0.08175405142172637</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1129759746966447</v>
+      </c>
+      <c r="I56">
+        <v>0.03372315410782679</v>
+      </c>
+      <c r="J56">
+        <v>0.0671566075208455</v>
+      </c>
+      <c r="K56">
+        <v>0.02853987457815503</v>
+      </c>
+      <c r="L56">
+        <v>0.0150960558469965</v>
+      </c>
+      <c r="M56">
+        <v>0.06991296545367466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.05069547799840588</v>
+        <v>-0.04241340678296183</v>
       </c>
       <c r="C58">
-        <v>-0.03713375282608928</v>
+        <v>0.03134536601999587</v>
       </c>
       <c r="D58">
-        <v>0.04219662540906888</v>
+        <v>0.08009980650114047</v>
       </c>
       <c r="E58">
-        <v>0.3030474137565883</v>
+        <v>-0.02944852479208856</v>
       </c>
       <c r="F58">
-        <v>-0.160987311288243</v>
+        <v>-0.03192008301783345</v>
       </c>
       <c r="G58">
-        <v>0.1241115856009265</v>
+        <v>-0.05987249836226115</v>
       </c>
       <c r="H58">
-        <v>0.02246934561061848</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.2254742798297406</v>
+      </c>
+      <c r="I58">
+        <v>-0.192148153845792</v>
+      </c>
+      <c r="J58">
+        <v>-0.09166005779301337</v>
+      </c>
+      <c r="K58">
+        <v>0.248684163893159</v>
+      </c>
+      <c r="L58">
+        <v>-0.4723295935184285</v>
+      </c>
+      <c r="M58">
+        <v>-0.2251065135789962</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2464978733969559</v>
+        <v>-0.2294051649586406</v>
       </c>
       <c r="C59">
-        <v>0.4080736783719447</v>
+        <v>-0.305733745972516</v>
       </c>
       <c r="D59">
-        <v>0.05393435330832257</v>
+        <v>-0.038643989776789</v>
       </c>
       <c r="E59">
-        <v>0.03604100490354454</v>
+        <v>-0.01241254102795478</v>
       </c>
       <c r="F59">
-        <v>0.09442784060875717</v>
+        <v>-0.02369316270497478</v>
       </c>
       <c r="G59">
-        <v>-0.01219429749969357</v>
+        <v>0.06069340155614592</v>
       </c>
       <c r="H59">
-        <v>-0.02135806164058891</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.07848835387743075</v>
+      </c>
+      <c r="I59">
+        <v>0.07891944466818911</v>
+      </c>
+      <c r="J59">
+        <v>-0.03962164890769199</v>
+      </c>
+      <c r="K59">
+        <v>0.07378952862317376</v>
+      </c>
+      <c r="L59">
+        <v>0.01471154996149586</v>
+      </c>
+      <c r="M59">
+        <v>-0.01264466842312256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2454610421691363</v>
+        <v>-0.2406235526439386</v>
       </c>
       <c r="C60">
-        <v>-0.08500166078961165</v>
+        <v>0.1153058927045083</v>
       </c>
       <c r="D60">
-        <v>0.08845431552924153</v>
+        <v>-0.06618712351885192</v>
       </c>
       <c r="E60">
-        <v>0.008654134262050256</v>
+        <v>-0.03489166246565265</v>
       </c>
       <c r="F60">
-        <v>0.02311750777348862</v>
+        <v>0.1094270827002211</v>
       </c>
       <c r="G60">
-        <v>0.05365417658871027</v>
+        <v>-0.06792898893351151</v>
       </c>
       <c r="H60">
-        <v>0.09834228475016385</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.09785189999703434</v>
+      </c>
+      <c r="I60">
+        <v>-0.09675279169677761</v>
+      </c>
+      <c r="J60">
+        <v>0.08745655960026553</v>
+      </c>
+      <c r="K60">
+        <v>0.1257575748734541</v>
+      </c>
+      <c r="L60">
+        <v>0.06510784138820254</v>
+      </c>
+      <c r="M60">
+        <v>0.02339876694311386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.07719419891376067</v>
+        <v>-0.08693737019512836</v>
       </c>
       <c r="C61">
-        <v>-0.05548303935386165</v>
+        <v>0.06094644343208026</v>
       </c>
       <c r="D61">
-        <v>0.01904718955844336</v>
+        <v>-0.04082212925829361</v>
       </c>
       <c r="E61">
-        <v>0.009797046192476341</v>
+        <v>-0.02063050480538677</v>
       </c>
       <c r="F61">
-        <v>-0.01870510497868865</v>
+        <v>-0.109134279840567</v>
       </c>
       <c r="G61">
-        <v>-0.01781421730127472</v>
+        <v>0.06679164522163397</v>
       </c>
       <c r="H61">
-        <v>-0.007622924580129591</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.04436592248237678</v>
+      </c>
+      <c r="I61">
+        <v>-0.01436990627965098</v>
+      </c>
+      <c r="J61">
+        <v>-0.08456680097182712</v>
+      </c>
+      <c r="K61">
+        <v>-0.01305642462920211</v>
+      </c>
+      <c r="L61">
+        <v>-0.03093614827280197</v>
+      </c>
+      <c r="M61">
+        <v>0.01154755081255152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1640460611007075</v>
+        <v>-0.1459024586184098</v>
       </c>
       <c r="C62">
-        <v>-0.04836379464973541</v>
+        <v>0.07572861109818042</v>
       </c>
       <c r="D62">
-        <v>0.02101710006428211</v>
+        <v>-0.03495450364923668</v>
       </c>
       <c r="E62">
-        <v>-0.1252649878653209</v>
+        <v>0.02957250757358374</v>
       </c>
       <c r="F62">
-        <v>0.06577824392477304</v>
+        <v>0.02961791698549988</v>
       </c>
       <c r="G62">
-        <v>-0.2445861193337905</v>
+        <v>0.2032942597168188</v>
       </c>
       <c r="H62">
-        <v>-0.05483763075490476</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.06882270067100486</v>
+      </c>
+      <c r="I62">
+        <v>0.01864089745622293</v>
+      </c>
+      <c r="J62">
+        <v>0.1216874812964883</v>
+      </c>
+      <c r="K62">
+        <v>-0.02992938128338577</v>
+      </c>
+      <c r="L62">
+        <v>0.08313688492207774</v>
+      </c>
+      <c r="M62">
+        <v>0.07475248696780104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04515653779132232</v>
+        <v>-0.04495149332461821</v>
       </c>
       <c r="C63">
-        <v>-0.04700997109137018</v>
+        <v>0.03014815384040646</v>
       </c>
       <c r="D63">
-        <v>0.02317162564597059</v>
+        <v>-0.00627500607582879</v>
       </c>
       <c r="E63">
-        <v>0.005222695193903005</v>
+        <v>0.00573104827134044</v>
       </c>
       <c r="F63">
-        <v>-0.02423138113661431</v>
+        <v>-0.05969287039774551</v>
       </c>
       <c r="G63">
-        <v>-0.04205106450633266</v>
+        <v>0.01388179256174184</v>
       </c>
       <c r="H63">
-        <v>0.02170982203746579</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.0566521813537499</v>
+      </c>
+      <c r="I63">
+        <v>-0.02006138535635172</v>
+      </c>
+      <c r="J63">
+        <v>0.03202836462733134</v>
+      </c>
+      <c r="K63">
+        <v>-0.02416715456985668</v>
+      </c>
+      <c r="L63">
+        <v>-0.01370347336811279</v>
+      </c>
+      <c r="M63">
+        <v>1.810941594540603e-08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1002357418983593</v>
+        <v>-0.1016644119254665</v>
       </c>
       <c r="C64">
-        <v>-0.03203947734707124</v>
+        <v>0.04759726516341206</v>
       </c>
       <c r="D64">
-        <v>0.03945357545603047</v>
+        <v>0.0007472472024893807</v>
       </c>
       <c r="E64">
-        <v>0.03988703903235596</v>
+        <v>-0.0419080935255919</v>
       </c>
       <c r="F64">
-        <v>-0.03605001586878556</v>
+        <v>-0.0562149774972522</v>
       </c>
       <c r="G64">
-        <v>0.01402646739391181</v>
+        <v>-0.005920052170088449</v>
       </c>
       <c r="H64">
-        <v>0.02746169942072142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.04410236942804064</v>
+      </c>
+      <c r="I64">
+        <v>-0.05241975667212113</v>
+      </c>
+      <c r="J64">
+        <v>-0.02105139407989884</v>
+      </c>
+      <c r="K64">
+        <v>-0.04774572185858365</v>
+      </c>
+      <c r="L64">
+        <v>-0.01154330705079738</v>
+      </c>
+      <c r="M64">
+        <v>0.06312343319659142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1278766725230435</v>
+        <v>-0.1244916322605051</v>
       </c>
       <c r="C65">
-        <v>-0.06639284023383712</v>
+        <v>0.04130351980440222</v>
       </c>
       <c r="D65">
-        <v>0.06688444939674151</v>
+        <v>-0.01455111512490665</v>
       </c>
       <c r="E65">
-        <v>0.1013762192546374</v>
+        <v>-0.008506395372044027</v>
       </c>
       <c r="F65">
-        <v>-0.1600473975372402</v>
+        <v>-0.03245627057923287</v>
       </c>
       <c r="G65">
-        <v>0.05626455894190271</v>
+        <v>-0.1906076559943751</v>
       </c>
       <c r="H65">
-        <v>0.2818340655167161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.1034590793920552</v>
+      </c>
+      <c r="I65">
+        <v>-0.2480414537839312</v>
+      </c>
+      <c r="J65">
+        <v>0.6137500378323247</v>
+      </c>
+      <c r="K65">
+        <v>0.001991271622467663</v>
+      </c>
+      <c r="L65">
+        <v>0.05395076648951392</v>
+      </c>
+      <c r="M65">
+        <v>-0.1141935796736162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1536284761658987</v>
+        <v>-0.1254634161256025</v>
       </c>
       <c r="C66">
-        <v>-0.1471244279765615</v>
+        <v>0.1295211997098405</v>
       </c>
       <c r="D66">
-        <v>0.05352133278818714</v>
+        <v>-0.1008933232415307</v>
       </c>
       <c r="E66">
-        <v>0.005619256101682788</v>
+        <v>0.005100093906459804</v>
       </c>
       <c r="F66">
-        <v>0.05902187298386247</v>
+        <v>-0.1579562306232819</v>
       </c>
       <c r="G66">
-        <v>-0.01188848293492544</v>
+        <v>0.0630318174842622</v>
       </c>
       <c r="H66">
-        <v>0.02795736130020838</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.06852331346269731</v>
+      </c>
+      <c r="I66">
+        <v>-0.07546062610658967</v>
+      </c>
+      <c r="J66">
+        <v>-0.242781416464388</v>
+      </c>
+      <c r="K66">
+        <v>-0.04534692907505902</v>
+      </c>
+      <c r="L66">
+        <v>-0.03985673400552499</v>
+      </c>
+      <c r="M66">
+        <v>0.07854886555103242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07193368685630806</v>
+        <v>-0.08238483620994785</v>
       </c>
       <c r="C67">
-        <v>-0.04511873968275785</v>
+        <v>0.06645847422528708</v>
       </c>
       <c r="D67">
-        <v>0.0004324311944258735</v>
+        <v>0.01734438307420938</v>
       </c>
       <c r="E67">
-        <v>0.01590767242711898</v>
+        <v>-0.03096564663739864</v>
       </c>
       <c r="F67">
-        <v>0.008282845579490822</v>
+        <v>0.03487666719966904</v>
       </c>
       <c r="G67">
-        <v>0.02359363515079832</v>
+        <v>0.04532239540414942</v>
       </c>
       <c r="H67">
-        <v>-0.03975587218916129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.1152461785811336</v>
+      </c>
+      <c r="I67">
+        <v>-0.01013912082473142</v>
+      </c>
+      <c r="J67">
+        <v>-0.0366958205462992</v>
+      </c>
+      <c r="K67">
+        <v>-0.1159089871986077</v>
+      </c>
+      <c r="L67">
+        <v>0.1118321143820061</v>
+      </c>
+      <c r="M67">
+        <v>0.02649283414617783</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1041111001548962</v>
+        <v>-0.1215438086331531</v>
       </c>
       <c r="C68">
-        <v>0.2622332446154954</v>
+        <v>-0.2721250476786667</v>
       </c>
       <c r="D68">
-        <v>0.01268963458133249</v>
+        <v>-0.006521338508192397</v>
       </c>
       <c r="E68">
-        <v>0.009828229990972595</v>
+        <v>-0.003815080629702147</v>
       </c>
       <c r="F68">
-        <v>-0.01789255535055342</v>
+        <v>-0.01718002027680294</v>
       </c>
       <c r="G68">
-        <v>-0.02360220377798124</v>
+        <v>0.02940329084709967</v>
       </c>
       <c r="H68">
-        <v>-0.02040455440334238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.02808938520046361</v>
+      </c>
+      <c r="I68">
+        <v>-0.03191693765966957</v>
+      </c>
+      <c r="J68">
+        <v>0.04705377510634657</v>
+      </c>
+      <c r="K68">
+        <v>-0.02647355367831971</v>
+      </c>
+      <c r="L68">
+        <v>-0.0112148020897304</v>
+      </c>
+      <c r="M68">
+        <v>0.008572388068033045</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04506096719110876</v>
+        <v>-0.04414937874510983</v>
       </c>
       <c r="C69">
-        <v>-0.02374702542455663</v>
+        <v>0.02248538091495369</v>
       </c>
       <c r="D69">
-        <v>0.01241554788300836</v>
+        <v>0.01230247861048478</v>
       </c>
       <c r="E69">
-        <v>0.02039975258482802</v>
+        <v>0.005127088884951826</v>
       </c>
       <c r="F69">
-        <v>0.0425435638798746</v>
+        <v>-0.01456110304675075</v>
       </c>
       <c r="G69">
-        <v>-0.03184381459397391</v>
+        <v>0.0402975356256717</v>
       </c>
       <c r="H69">
-        <v>-0.007208788755647556</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.0271124224080795</v>
+      </c>
+      <c r="I69">
+        <v>-0.02301081912684295</v>
+      </c>
+      <c r="J69">
+        <v>-0.001537469845220246</v>
+      </c>
+      <c r="K69">
+        <v>-0.01309803778658964</v>
+      </c>
+      <c r="L69">
+        <v>0.01144981003474967</v>
+      </c>
+      <c r="M69">
+        <v>-0.06651673426482395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.032562016663751</v>
+        <v>-0.05535037953475661</v>
       </c>
       <c r="C70">
-        <v>-0.009512214723986216</v>
+        <v>0.03491648723479995</v>
       </c>
       <c r="D70">
-        <v>-0.01524061568174456</v>
+        <v>-0.02979135269075531</v>
       </c>
       <c r="E70">
-        <v>0.01276795488872916</v>
+        <v>-0.00120758813170772</v>
       </c>
       <c r="F70">
-        <v>-0.01683635862140764</v>
+        <v>0.01128185956363723</v>
       </c>
       <c r="G70">
-        <v>0.09717703244385537</v>
+        <v>-0.03775284058453234</v>
       </c>
       <c r="H70">
-        <v>-0.04203894426945348</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.07110170493016503</v>
+      </c>
+      <c r="I70">
+        <v>0.1162901368643269</v>
+      </c>
+      <c r="J70">
+        <v>-0.007123321048490855</v>
+      </c>
+      <c r="K70">
+        <v>-0.1971880730399253</v>
+      </c>
+      <c r="L70">
+        <v>-0.02418095101675499</v>
+      </c>
+      <c r="M70">
+        <v>-0.175821856731678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1066608806070305</v>
+        <v>-0.1337667791245636</v>
       </c>
       <c r="C71">
-        <v>0.2765805026567312</v>
+        <v>-0.2807979942837314</v>
       </c>
       <c r="D71">
-        <v>0.04154507764350849</v>
+        <v>-0.007795316370705692</v>
       </c>
       <c r="E71">
-        <v>0.001127242498769472</v>
+        <v>-0.02436528599148094</v>
       </c>
       <c r="F71">
-        <v>-0.01360480385824959</v>
+        <v>-0.02126531659588378</v>
       </c>
       <c r="G71">
-        <v>0.01041711025376883</v>
+        <v>0.02384495298402937</v>
       </c>
       <c r="H71">
-        <v>-0.02076738532209592</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.02308575320358093</v>
+      </c>
+      <c r="I71">
+        <v>-0.03041191414867026</v>
+      </c>
+      <c r="J71">
+        <v>0.003319603954966461</v>
+      </c>
+      <c r="K71">
+        <v>-0.01947593183784129</v>
+      </c>
+      <c r="L71">
+        <v>0.01211682162101995</v>
+      </c>
+      <c r="M71">
+        <v>0.003425893982517895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1854418500522806</v>
+        <v>-0.1452240703286717</v>
       </c>
       <c r="C72">
-        <v>-0.02520400313919221</v>
+        <v>0.03375120684432018</v>
       </c>
       <c r="D72">
-        <v>-0.2105455770476947</v>
+        <v>-9.853447188271854e-06</v>
       </c>
       <c r="E72">
-        <v>-0.01546586823277022</v>
+        <v>0.1801347605448534</v>
       </c>
       <c r="F72">
-        <v>0.0169770999788198</v>
+        <v>-0.05974328635803486</v>
       </c>
       <c r="G72">
-        <v>-0.007393835894105296</v>
+        <v>0.00512536762121379</v>
       </c>
       <c r="H72">
-        <v>0.1313211972125714</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.05240895975101702</v>
+      </c>
+      <c r="I72">
+        <v>-0.05914699585171852</v>
+      </c>
+      <c r="J72">
+        <v>0.1443607909636736</v>
+      </c>
+      <c r="K72">
+        <v>0.04685705168810003</v>
+      </c>
+      <c r="L72">
+        <v>0.07241118575210434</v>
+      </c>
+      <c r="M72">
+        <v>0.006583319485838998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2711144804370588</v>
+        <v>-0.2343141567050668</v>
       </c>
       <c r="C73">
-        <v>-0.1857931237782935</v>
+        <v>0.1571957522611192</v>
       </c>
       <c r="D73">
-        <v>0.1571001947103237</v>
+        <v>-0.1527521598919179</v>
       </c>
       <c r="E73">
-        <v>-0.06485264440206751</v>
+        <v>-0.08118666860168795</v>
       </c>
       <c r="F73">
-        <v>-0.1181780567535478</v>
+        <v>0.3827691413263918</v>
       </c>
       <c r="G73">
-        <v>0.1103455704366536</v>
+        <v>-0.2286245864384125</v>
       </c>
       <c r="H73">
-        <v>0.1663676337039416</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.01871425385672428</v>
+      </c>
+      <c r="I73">
+        <v>-0.3796832552272021</v>
+      </c>
+      <c r="J73">
+        <v>-0.2717190026880216</v>
+      </c>
+      <c r="K73">
+        <v>0.254364257009894</v>
+      </c>
+      <c r="L73">
+        <v>0.09164800764922749</v>
+      </c>
+      <c r="M73">
+        <v>0.1367511589239797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09001346360907966</v>
+        <v>-0.08708912351698046</v>
       </c>
       <c r="C74">
-        <v>-0.02384180444049184</v>
+        <v>0.06432265593792069</v>
       </c>
       <c r="D74">
-        <v>0.02226110478529178</v>
+        <v>-0.009495131831563466</v>
       </c>
       <c r="E74">
-        <v>-0.02530254641715824</v>
+        <v>0.00462272154192277</v>
       </c>
       <c r="F74">
-        <v>-0.05041752107596663</v>
+        <v>0.03648480085435685</v>
       </c>
       <c r="G74">
-        <v>-0.1602638793674296</v>
+        <v>0.1508717306362394</v>
       </c>
       <c r="H74">
-        <v>-0.02015263615511196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.008651342569301198</v>
+      </c>
+      <c r="I74">
+        <v>-0.0454777785136101</v>
+      </c>
+      <c r="J74">
+        <v>0.01195998390985977</v>
+      </c>
+      <c r="K74">
+        <v>0.01738831464189496</v>
+      </c>
+      <c r="L74">
+        <v>0.03574897496469043</v>
+      </c>
+      <c r="M74">
+        <v>0.03572560818761836</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.1017477372247637</v>
+        <v>-0.09202602234623122</v>
       </c>
       <c r="C75">
-        <v>-0.02295622501094357</v>
+        <v>0.05042852000862514</v>
       </c>
       <c r="D75">
-        <v>0.02670407928035341</v>
+        <v>-0.009904334221521854</v>
       </c>
       <c r="E75">
-        <v>-0.03217150218865005</v>
+        <v>0.009441370406263331</v>
       </c>
       <c r="F75">
-        <v>0.06847241442094937</v>
+        <v>0.02433907098781107</v>
       </c>
       <c r="G75">
-        <v>-0.09801572689331219</v>
+        <v>0.1182302686675646</v>
       </c>
       <c r="H75">
-        <v>-0.06456608783574017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.06644047657206552</v>
+      </c>
+      <c r="I75">
+        <v>0.05130943078724769</v>
+      </c>
+      <c r="J75">
+        <v>0.02475644422021999</v>
+      </c>
+      <c r="K75">
+        <v>0.04120140594322515</v>
+      </c>
+      <c r="L75">
+        <v>-0.005165377919345899</v>
+      </c>
+      <c r="M75">
+        <v>-0.06055078829822196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1316852078229324</v>
+        <v>-0.1014695211214178</v>
       </c>
       <c r="C76">
-        <v>-0.03469153998507674</v>
+        <v>0.07061170840881115</v>
       </c>
       <c r="D76">
-        <v>0.02689398264745724</v>
+        <v>-0.009887972646155914</v>
       </c>
       <c r="E76">
-        <v>-0.0274422356381837</v>
+        <v>-0.008882184208576057</v>
       </c>
       <c r="F76">
-        <v>0.03771065419640383</v>
+        <v>0.06208646955608251</v>
       </c>
       <c r="G76">
-        <v>-0.2426372794918386</v>
+        <v>0.2211242930105339</v>
       </c>
       <c r="H76">
-        <v>-0.05805812506195222</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.06698084187784704</v>
+      </c>
+      <c r="I76">
+        <v>0.01000397456326096</v>
+      </c>
+      <c r="J76">
+        <v>0.06424834557272509</v>
+      </c>
+      <c r="K76">
+        <v>0.04000089947215386</v>
+      </c>
+      <c r="L76">
+        <v>0.0003116713020318337</v>
+      </c>
+      <c r="M76">
+        <v>0.1380955784112585</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.0781396275451976</v>
+        <v>-0.07377776708745167</v>
       </c>
       <c r="C77">
-        <v>-0.04907929385315395</v>
+        <v>0.02104249260711156</v>
       </c>
       <c r="D77">
-        <v>-0.05408212851499349</v>
+        <v>-0.005945962228202963</v>
       </c>
       <c r="E77">
-        <v>0.3330645096304496</v>
+        <v>-0.05577383369282699</v>
       </c>
       <c r="F77">
-        <v>0.6364957812296668</v>
+        <v>-0.4893435879773149</v>
       </c>
       <c r="G77">
-        <v>0.07863642215428941</v>
+        <v>-0.3401058547834149</v>
       </c>
       <c r="H77">
-        <v>0.447333090288809</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.6565643554085507</v>
+      </c>
+      <c r="I77">
+        <v>-0.06095167569194541</v>
+      </c>
+      <c r="J77">
+        <v>-0.02274440565269674</v>
+      </c>
+      <c r="K77">
+        <v>0.0903409254434404</v>
+      </c>
+      <c r="L77">
+        <v>-0.01416721156595233</v>
+      </c>
+      <c r="M77">
+        <v>0.1969450593140436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1217496072657346</v>
+        <v>-0.1783186380646986</v>
       </c>
       <c r="C78">
-        <v>-0.08970081670128338</v>
+        <v>0.1082646015327525</v>
       </c>
       <c r="D78">
-        <v>0.01441462613735294</v>
+        <v>0.1774189559418896</v>
       </c>
       <c r="E78">
-        <v>0.1536238814196509</v>
+        <v>-0.1248050370922046</v>
       </c>
       <c r="F78">
-        <v>-0.07872481896462488</v>
+        <v>-0.1210343957018544</v>
       </c>
       <c r="G78">
-        <v>0.03824161902835788</v>
+        <v>-0.1624273792120128</v>
       </c>
       <c r="H78">
-        <v>-0.0525848711613425</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.2092228180774543</v>
+      </c>
+      <c r="I78">
+        <v>0.579154663331177</v>
+      </c>
+      <c r="J78">
+        <v>0.07043761957280648</v>
+      </c>
+      <c r="K78">
+        <v>0.5387193806475831</v>
+      </c>
+      <c r="L78">
+        <v>0.04734496554170882</v>
+      </c>
+      <c r="M78">
+        <v>0.109813895739374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1465296440860732</v>
+        <v>-0.135873639165048</v>
       </c>
       <c r="C79">
-        <v>-0.05339896403699413</v>
+        <v>0.07575185373955913</v>
       </c>
       <c r="D79">
-        <v>0.03959875555947698</v>
+        <v>-0.004988970379795971</v>
       </c>
       <c r="E79">
-        <v>-0.05004895824231931</v>
+        <v>-0.004407631355957013</v>
       </c>
       <c r="F79">
-        <v>0.06297432848094495</v>
+        <v>0.007987899516559626</v>
       </c>
       <c r="G79">
-        <v>-0.1493342460047262</v>
+        <v>0.1756209021393546</v>
       </c>
       <c r="H79">
-        <v>-0.07954060115574205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.07490603393154606</v>
+      </c>
+      <c r="I79">
+        <v>0.000774862900659299</v>
+      </c>
+      <c r="J79">
+        <v>0.06773423995853833</v>
+      </c>
+      <c r="K79">
+        <v>-0.0175546015030208</v>
+      </c>
+      <c r="L79">
+        <v>0.03299329906082608</v>
+      </c>
+      <c r="M79">
+        <v>0.004796966434117138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.01647832137396009</v>
+        <v>-0.03947054555783492</v>
       </c>
       <c r="C80">
-        <v>0.008812073191543181</v>
+        <v>0.01636693564395587</v>
       </c>
       <c r="D80">
-        <v>-0.009835152563548485</v>
+        <v>-0.05132139055334337</v>
       </c>
       <c r="E80">
-        <v>0.002485135360901895</v>
+        <v>0.001418876583675657</v>
       </c>
       <c r="F80">
-        <v>-0.0349633297647837</v>
+        <v>-0.009269104706631106</v>
       </c>
       <c r="G80">
-        <v>-0.01010625760956462</v>
+        <v>-0.001902641027463515</v>
       </c>
       <c r="H80">
-        <v>0.05489799356846593</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.09709609673600346</v>
+      </c>
+      <c r="I80">
+        <v>0.03250476918239836</v>
+      </c>
+      <c r="J80">
+        <v>0.005874890719638173</v>
+      </c>
+      <c r="K80">
+        <v>0.002143371323975502</v>
+      </c>
+      <c r="L80">
+        <v>0.003621609236414607</v>
+      </c>
+      <c r="M80">
+        <v>-0.04817093189526095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.117769204272727</v>
+        <v>-0.1213730814335957</v>
       </c>
       <c r="C81">
-        <v>-0.04478652021231217</v>
+        <v>0.05196452452092998</v>
       </c>
       <c r="D81">
-        <v>0.0416483547211217</v>
+        <v>-0.00380549248460508</v>
       </c>
       <c r="E81">
-        <v>-0.0405298291873591</v>
+        <v>-0.004731402057777152</v>
       </c>
       <c r="F81">
-        <v>0.02765377638415507</v>
+        <v>-0.003475115061123447</v>
       </c>
       <c r="G81">
-        <v>-0.1014964453169523</v>
+        <v>0.1757835553704487</v>
       </c>
       <c r="H81">
-        <v>-0.02889509692042116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.03809474850044651</v>
+      </c>
+      <c r="I81">
+        <v>0.008897692726891195</v>
+      </c>
+      <c r="J81">
+        <v>-0.003789104113565762</v>
+      </c>
+      <c r="K81">
+        <v>0.01277909248723434</v>
+      </c>
+      <c r="L81">
+        <v>-0.01905329359985461</v>
+      </c>
+      <c r="M81">
+        <v>-0.0365201487135046</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1129478242540194</v>
+        <v>-0.1173283110602351</v>
       </c>
       <c r="C82">
-        <v>-0.04708472078434398</v>
+        <v>0.05719685674154387</v>
       </c>
       <c r="D82">
-        <v>0.06599971697948376</v>
+        <v>-0.02462142832982712</v>
       </c>
       <c r="E82">
-        <v>-0.09974440036730403</v>
+        <v>0.002225909950738764</v>
       </c>
       <c r="F82">
-        <v>0.09068512181031395</v>
+        <v>0.0423769631536044</v>
       </c>
       <c r="G82">
-        <v>-0.2515457110725982</v>
+        <v>0.245987534730063</v>
       </c>
       <c r="H82">
-        <v>-0.1138458866801078</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.07219291947899047</v>
+      </c>
+      <c r="I82">
+        <v>0.04489144529081636</v>
+      </c>
+      <c r="J82">
+        <v>-0.006624012938016011</v>
+      </c>
+      <c r="K82">
+        <v>-0.04562245627356989</v>
+      </c>
+      <c r="L82">
+        <v>0.0403139353051658</v>
+      </c>
+      <c r="M82">
+        <v>0.0004674768267948986</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05007648023690421</v>
+        <v>-0.07062185232558188</v>
       </c>
       <c r="C83">
-        <v>-0.03069435838764936</v>
+        <v>0.05552983478883818</v>
       </c>
       <c r="D83">
-        <v>0.03450787136907046</v>
+        <v>-0.00725759719109438</v>
       </c>
       <c r="E83">
-        <v>-0.01497819657013443</v>
+        <v>-0.02137601182372459</v>
       </c>
       <c r="F83">
-        <v>0.008946709699404264</v>
+        <v>0.004914206306109139</v>
       </c>
       <c r="G83">
-        <v>0.1107779366569805</v>
+        <v>-0.002420688458164435</v>
       </c>
       <c r="H83">
-        <v>-0.02931442557782997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.02938409836022859</v>
+      </c>
+      <c r="I83">
+        <v>-0.005568389242060735</v>
+      </c>
+      <c r="J83">
+        <v>-0.04871727202227948</v>
+      </c>
+      <c r="K83">
+        <v>-0.160813220614918</v>
+      </c>
+      <c r="L83">
+        <v>-0.03729154803963524</v>
+      </c>
+      <c r="M83">
+        <v>-0.08841360888395526</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05391520628251565</v>
+        <v>-0.041019778740611</v>
       </c>
       <c r="C84">
-        <v>-0.02286529100795995</v>
+        <v>-0.02224980704519244</v>
       </c>
       <c r="D84">
-        <v>-0.01668453412487412</v>
+        <v>-0.0006711613674365074</v>
       </c>
       <c r="E84">
-        <v>-0.006346792795756687</v>
+        <v>0.03210045988996144</v>
       </c>
       <c r="F84">
-        <v>-0.1171882527859827</v>
+        <v>-0.03056749969748394</v>
       </c>
       <c r="G84">
-        <v>-0.01643504512765927</v>
+        <v>-0.1290891987532837</v>
       </c>
       <c r="H84">
-        <v>-0.07108779475582883</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.259439757314784</v>
+      </c>
+      <c r="I84">
+        <v>0.1424984012506106</v>
+      </c>
+      <c r="J84">
+        <v>-0.1227785175539275</v>
+      </c>
+      <c r="K84">
+        <v>-0.2108589235677768</v>
+      </c>
+      <c r="L84">
+        <v>0.2640443335680621</v>
+      </c>
+      <c r="M84">
+        <v>0.3719033350487739</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.07908602993399021</v>
+        <v>-0.1072098644188768</v>
       </c>
       <c r="C85">
-        <v>-0.04003657590765517</v>
+        <v>0.05189061450575522</v>
       </c>
       <c r="D85">
-        <v>0.05672927718059231</v>
+        <v>-0.0177961409358633</v>
       </c>
       <c r="E85">
-        <v>-0.01944552352484886</v>
+        <v>-0.0334940702066509</v>
       </c>
       <c r="F85">
-        <v>0.03972801303484639</v>
+        <v>0.005908201189080162</v>
       </c>
       <c r="G85">
-        <v>-0.1773565492669004</v>
+        <v>0.1831197773723372</v>
       </c>
       <c r="H85">
-        <v>-0.02822763814579061</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.06133105146921693</v>
+      </c>
+      <c r="I85">
+        <v>0.006061730965007396</v>
+      </c>
+      <c r="J85">
+        <v>0.06425185255624166</v>
+      </c>
+      <c r="K85">
+        <v>0.01845546997109924</v>
+      </c>
+      <c r="L85">
+        <v>0.05285010948763765</v>
+      </c>
+      <c r="M85">
+        <v>-0.001028606488587773</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03791246970161825</v>
+        <v>-0.07296607494979467</v>
       </c>
       <c r="C86">
-        <v>-0.0483371842331188</v>
+        <v>0.02639531583731786</v>
       </c>
       <c r="D86">
-        <v>-0.00678788245245384</v>
+        <v>0.008730204193192152</v>
       </c>
       <c r="E86">
-        <v>0.05157808217322949</v>
+        <v>-0.03947664082197355</v>
       </c>
       <c r="F86">
-        <v>0.006846159311721807</v>
+        <v>-0.08615607276259694</v>
       </c>
       <c r="G86">
-        <v>0.03665473276206697</v>
+        <v>-0.1228607454212937</v>
       </c>
       <c r="H86">
-        <v>0.1069488738902038</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.1509229658779178</v>
+      </c>
+      <c r="I86">
+        <v>0.1401438375000307</v>
+      </c>
+      <c r="J86">
+        <v>-0.08198427104611576</v>
+      </c>
+      <c r="K86">
+        <v>-0.1901950793090788</v>
+      </c>
+      <c r="L86">
+        <v>0.4992532853168627</v>
+      </c>
+      <c r="M86">
+        <v>-0.1343551997346169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09444202428899209</v>
+        <v>-0.1140051857540046</v>
       </c>
       <c r="C87">
-        <v>-0.08062126664346368</v>
+        <v>0.07095439223230401</v>
       </c>
       <c r="D87">
-        <v>0.01209976654826308</v>
+        <v>0.03227644021588562</v>
       </c>
       <c r="E87">
-        <v>0.1492588612394268</v>
+        <v>-0.03361989745692781</v>
       </c>
       <c r="F87">
-        <v>0.1141179222789356</v>
+        <v>-0.1562611510856741</v>
       </c>
       <c r="G87">
-        <v>0.02434908554639373</v>
+        <v>-0.129987871120953</v>
       </c>
       <c r="H87">
-        <v>0.08311842212655449</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09638088976843318</v>
+      </c>
+      <c r="I87">
+        <v>-0.02732170836721943</v>
+      </c>
+      <c r="J87">
+        <v>-0.03035873791325891</v>
+      </c>
+      <c r="K87">
+        <v>-0.08714445839134667</v>
+      </c>
+      <c r="L87">
+        <v>-0.02142442592997318</v>
+      </c>
+      <c r="M87">
+        <v>0.06682274543140648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04690470035798324</v>
+        <v>-0.05715719099402</v>
       </c>
       <c r="C88">
-        <v>-0.03699386922548052</v>
+        <v>0.05398259931945455</v>
       </c>
       <c r="D88">
-        <v>0.01927320373498803</v>
+        <v>-0.02972774926604569</v>
       </c>
       <c r="E88">
-        <v>0.005660086855174925</v>
+        <v>-0.0162439576254695</v>
       </c>
       <c r="F88">
-        <v>-0.004970423126030091</v>
+        <v>-0.02686732076697305</v>
       </c>
       <c r="G88">
-        <v>0.02419488251100675</v>
+        <v>0.02211424680629884</v>
       </c>
       <c r="H88">
-        <v>0.004924599149738571</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.03265841138696761</v>
+      </c>
+      <c r="I88">
+        <v>-0.02375026377448279</v>
+      </c>
+      <c r="J88">
+        <v>-0.0297132405296792</v>
+      </c>
+      <c r="K88">
+        <v>-0.02067735970205147</v>
+      </c>
+      <c r="L88">
+        <v>-0.00562042627299964</v>
+      </c>
+      <c r="M88">
+        <v>-0.02107531575956546</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1694616778447245</v>
+        <v>-0.2179531600753569</v>
       </c>
       <c r="C89">
-        <v>0.3135363310172256</v>
+        <v>-0.355831921156428</v>
       </c>
       <c r="D89">
-        <v>0.08285481919220432</v>
+        <v>0.04193762233748022</v>
       </c>
       <c r="E89">
-        <v>0.08654021968113505</v>
+        <v>-0.0877150652233864</v>
       </c>
       <c r="F89">
-        <v>-0.00264999041266645</v>
+        <v>-0.003613592376037352</v>
       </c>
       <c r="G89">
-        <v>0.04044026661727984</v>
+        <v>0.00819627655481011</v>
       </c>
       <c r="H89">
-        <v>-0.02540002139760209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.02952964256610008</v>
+      </c>
+      <c r="I89">
+        <v>-0.00722971919155443</v>
+      </c>
+      <c r="J89">
+        <v>-0.07097396236868371</v>
+      </c>
+      <c r="K89">
+        <v>0.02145385324127518</v>
+      </c>
+      <c r="L89">
+        <v>-0.0855120620150478</v>
+      </c>
+      <c r="M89">
+        <v>-0.07630918566032674</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1271486709345385</v>
+        <v>-0.1479597976331049</v>
       </c>
       <c r="C90">
-        <v>0.2725786288687492</v>
+        <v>-0.2667719015710701</v>
       </c>
       <c r="D90">
-        <v>0.01549536223323349</v>
+        <v>-0.0057624471561712</v>
       </c>
       <c r="E90">
-        <v>0.06711328427523593</v>
+        <v>-0.02037141888379756</v>
       </c>
       <c r="F90">
-        <v>0.004973380944644936</v>
+        <v>-0.02895526671877244</v>
       </c>
       <c r="G90">
-        <v>0.02651831680799124</v>
+        <v>-0.02049720004876293</v>
       </c>
       <c r="H90">
-        <v>0.04319489344459965</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.01862718343866832</v>
+      </c>
+      <c r="I90">
+        <v>-0.05004810648932558</v>
+      </c>
+      <c r="J90">
+        <v>-0.02649291316824289</v>
+      </c>
+      <c r="K90">
+        <v>-0.0008345863450899316</v>
+      </c>
+      <c r="L90">
+        <v>-0.007291571728925976</v>
+      </c>
+      <c r="M90">
+        <v>0.04031534179479989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08533759745512604</v>
+        <v>-0.07595005866446335</v>
       </c>
       <c r="C91">
-        <v>-0.03317237538387003</v>
+        <v>0.0520666029511699</v>
       </c>
       <c r="D91">
-        <v>0.01975710747803655</v>
+        <v>0.00844575772311156</v>
       </c>
       <c r="E91">
-        <v>-0.004118649987197813</v>
+        <v>-0.002794945051808441</v>
       </c>
       <c r="F91">
-        <v>0.02405546798809221</v>
+        <v>0.02103381620595589</v>
       </c>
       <c r="G91">
-        <v>-0.108843370552065</v>
+        <v>0.1001391265832532</v>
       </c>
       <c r="H91">
-        <v>-0.04449667501779146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.04230721048788002</v>
+      </c>
+      <c r="I91">
+        <v>0.02056819322126741</v>
+      </c>
+      <c r="J91">
+        <v>0.009239423641029379</v>
+      </c>
+      <c r="K91">
+        <v>0.05592410379966106</v>
+      </c>
+      <c r="L91">
+        <v>-0.03122235322575772</v>
+      </c>
+      <c r="M91">
+        <v>0.004821938254632455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1475062127180636</v>
+        <v>-0.1672709160020186</v>
       </c>
       <c r="C92">
-        <v>0.3105276646315956</v>
+        <v>-0.3059511684526405</v>
       </c>
       <c r="D92">
-        <v>0.06386424740496037</v>
+        <v>0.02767760830394829</v>
       </c>
       <c r="E92">
-        <v>0.02645861737600185</v>
+        <v>-0.04811062891487438</v>
       </c>
       <c r="F92">
-        <v>-0.06322015234652931</v>
+        <v>0.00121766531493943</v>
       </c>
       <c r="G92">
-        <v>0.01318504098060056</v>
+        <v>0.02793013712054151</v>
       </c>
       <c r="H92">
-        <v>-0.04747981555770851</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.0335245982186159</v>
+      </c>
+      <c r="I92">
+        <v>-0.01114033659919907</v>
+      </c>
+      <c r="J92">
+        <v>-0.02185345005182376</v>
+      </c>
+      <c r="K92">
+        <v>0.01613862441063487</v>
+      </c>
+      <c r="L92">
+        <v>-0.00417079902874586</v>
+      </c>
+      <c r="M92">
+        <v>-0.02066842187825143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1384159773927589</v>
+        <v>-0.1630241542640714</v>
       </c>
       <c r="C93">
-        <v>0.2534353506975373</v>
+        <v>-0.2891875564413826</v>
       </c>
       <c r="D93">
-        <v>0.03226450045086299</v>
+        <v>-0.02780842411546446</v>
       </c>
       <c r="E93">
-        <v>0.02857690981734983</v>
+        <v>-0.006241709202760598</v>
       </c>
       <c r="F93">
-        <v>-0.009327946297636499</v>
+        <v>-0.01056459715907099</v>
       </c>
       <c r="G93">
-        <v>0.0595267999647634</v>
+        <v>-0.001391081376735489</v>
       </c>
       <c r="H93">
-        <v>0.014906187901115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.01812847272318262</v>
+      </c>
+      <c r="I93">
+        <v>-0.0170516331075059</v>
+      </c>
+      <c r="J93">
+        <v>-0.01484178645008587</v>
+      </c>
+      <c r="K93">
+        <v>-0.05786174137150542</v>
+      </c>
+      <c r="L93">
+        <v>0.01089178673207062</v>
+      </c>
+      <c r="M93">
+        <v>0.008701365811822091</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08917241857545526</v>
+        <v>-0.1068211381430057</v>
       </c>
       <c r="C94">
-        <v>-0.06145276559156555</v>
+        <v>0.07541454732610278</v>
       </c>
       <c r="D94">
-        <v>0.02018274346918868</v>
+        <v>0.01091300610609677</v>
       </c>
       <c r="E94">
-        <v>-0.001446936621915736</v>
+        <v>-0.02201653800491033</v>
       </c>
       <c r="F94">
-        <v>0.04320796556779784</v>
+        <v>0.04206069846891095</v>
       </c>
       <c r="G94">
-        <v>-0.1374254297574162</v>
+        <v>0.1294967703094415</v>
       </c>
       <c r="H94">
-        <v>-0.09196162320166104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.02765484054278037</v>
+      </c>
+      <c r="I94">
+        <v>0.02259980206762929</v>
+      </c>
+      <c r="J94">
+        <v>0.01744441621181309</v>
+      </c>
+      <c r="K94">
+        <v>0.03713182902845742</v>
+      </c>
+      <c r="L94">
+        <v>-0.0113277837889217</v>
+      </c>
+      <c r="M94">
+        <v>-0.0530324971509638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1001120539987464</v>
+        <v>-0.1357395524572767</v>
       </c>
       <c r="C95">
-        <v>-0.1119794407467434</v>
+        <v>0.08136040343095123</v>
       </c>
       <c r="D95">
-        <v>0.07757305571897771</v>
+        <v>0.008627723715056799</v>
       </c>
       <c r="E95">
-        <v>0.02449192435627371</v>
+        <v>-0.06271291657254043</v>
       </c>
       <c r="F95">
-        <v>-0.04319480633016259</v>
+        <v>-0.06347267943468601</v>
       </c>
       <c r="G95">
-        <v>0.00661936962051968</v>
+        <v>-0.1714694957491221</v>
       </c>
       <c r="H95">
-        <v>0.05159705763541106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1438514726668275</v>
+      </c>
+      <c r="I95">
+        <v>-0.09669032274534976</v>
+      </c>
+      <c r="J95">
+        <v>-0.0233820370135307</v>
+      </c>
+      <c r="K95">
+        <v>-0.09252031049676589</v>
+      </c>
+      <c r="L95">
+        <v>0.1763504271083252</v>
+      </c>
+      <c r="M95">
+        <v>-0.2750757212298707</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.3148920657485889</v>
+        <v>-0.1738247909577638</v>
       </c>
       <c r="C97">
-        <v>-0.01387579390131051</v>
+        <v>0.004553142110137338</v>
       </c>
       <c r="D97">
-        <v>-0.8697477229141246</v>
+        <v>0.1018255282716585</v>
       </c>
       <c r="E97">
-        <v>-0.1616535761344731</v>
+        <v>0.9351631072420042</v>
       </c>
       <c r="F97">
-        <v>-0.07913259757685062</v>
+        <v>-0.05859007296408263</v>
       </c>
       <c r="G97">
-        <v>0.04786193011475246</v>
+        <v>-0.07131914134212787</v>
       </c>
       <c r="H97">
-        <v>0.05550559237055077</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.04106864949049299</v>
+      </c>
+      <c r="I97">
+        <v>0.005590237334367406</v>
+      </c>
+      <c r="J97">
+        <v>-0.06315488414102761</v>
+      </c>
+      <c r="K97">
+        <v>0.05700512042507178</v>
+      </c>
+      <c r="L97">
+        <v>-0.01634641395248651</v>
+      </c>
+      <c r="M97">
+        <v>-0.01943792461382728</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2612523782843578</v>
+        <v>-0.2636970385753097</v>
       </c>
       <c r="C98">
-        <v>-0.1182415582080508</v>
+        <v>0.123306507844102</v>
       </c>
       <c r="D98">
-        <v>0.1632114815959564</v>
+        <v>-0.02087080010916932</v>
       </c>
       <c r="E98">
-        <v>-0.3098684525095661</v>
+        <v>-0.008365055859568343</v>
       </c>
       <c r="F98">
-        <v>-0.1098891116103248</v>
+        <v>0.4119250224351603</v>
       </c>
       <c r="G98">
-        <v>0.5442365304150194</v>
+        <v>-0.3124305455152932</v>
       </c>
       <c r="H98">
-        <v>-0.2072565573073824</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.1157573462196785</v>
+      </c>
+      <c r="I98">
+        <v>0.3888668767029523</v>
+      </c>
+      <c r="J98">
+        <v>0.05118535873337267</v>
+      </c>
+      <c r="K98">
+        <v>-0.343628803115326</v>
+      </c>
+      <c r="L98">
+        <v>-0.440289071092319</v>
+      </c>
+      <c r="M98">
+        <v>0.08458224011201497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.06119648425735298</v>
+        <v>-0.07310291256366827</v>
       </c>
       <c r="C99">
-        <v>-0.06217277352226473</v>
+        <v>0.05858610915673661</v>
       </c>
       <c r="D99">
-        <v>-0.03807342641577361</v>
+        <v>0.0224460558798208</v>
       </c>
       <c r="E99">
-        <v>-0.005876965795844367</v>
+        <v>-0.01319520901596406</v>
       </c>
       <c r="F99">
-        <v>0.5772917025640193</v>
+        <v>0.005056107638084686</v>
       </c>
       <c r="G99">
-        <v>0.2735852556778223</v>
+        <v>0.02626491807768468</v>
       </c>
       <c r="H99">
-        <v>-0.5425475663765487</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.2906026760087839</v>
+      </c>
+      <c r="I99">
+        <v>0.1921153886927578</v>
+      </c>
+      <c r="J99">
+        <v>-0.1845530301982945</v>
+      </c>
+      <c r="K99">
+        <v>-0.01768676041274707</v>
+      </c>
+      <c r="L99">
+        <v>0.06355943984428966</v>
+      </c>
+      <c r="M99">
+        <v>-0.6408144409698546</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04620758996100544</v>
+        <v>-0.04481213140346797</v>
       </c>
       <c r="C101">
-        <v>-0.007957015401472043</v>
+        <v>0.02199426029279425</v>
       </c>
       <c r="D101">
-        <v>0.01103670102688135</v>
+        <v>-0.0003492250217188914</v>
       </c>
       <c r="E101">
-        <v>0.0328065946066327</v>
+        <v>-0.01910228242531666</v>
       </c>
       <c r="F101">
-        <v>-0.03590110725850965</v>
+        <v>-0.04729494801647204</v>
       </c>
       <c r="G101">
-        <v>-0.01566070126981534</v>
+        <v>0.05885381959497706</v>
       </c>
       <c r="H101">
-        <v>0.01353452037493082</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.04202433623760943</v>
+      </c>
+      <c r="I101">
+        <v>-0.003996216960274876</v>
+      </c>
+      <c r="J101">
+        <v>0.02377702017852581</v>
+      </c>
+      <c r="K101">
+        <v>-0.03631867590142</v>
+      </c>
+      <c r="L101">
+        <v>-0.01304527554947568</v>
+      </c>
+      <c r="M101">
+        <v>0.0130666359277805</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
